--- a/plot/IHmain.xlsx
+++ b/plot/IHmain.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\プロット\IH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\watarudoc\IsolationHeart\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D83F004-C9FD-4798-BF2E-1C851419648B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>IsolationHeart　設定</t>
     <rPh sb="15" eb="17">
@@ -2228,10 +2229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハサタニ　アヤメ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詠華南</t>
     <rPh sb="0" eb="1">
       <t>ナガメ</t>
@@ -2294,6 +2291,24 @@
   </si>
   <si>
     <t>トキクニ　セレナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼末来人</t>
+    <rPh sb="0" eb="2">
+      <t>カノスエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ライト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カノスエ　ライト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハセタニ　アヤメ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2986,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G74"/>
+  <dimension ref="B2:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3205,7 +3220,7 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>41</v>
@@ -3213,7 +3228,7 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
         <v>42</v>
@@ -3275,7 +3290,7 @@
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
         <v>52</v>
@@ -3298,12 +3313,12 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
@@ -3311,7 +3326,7 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
@@ -3377,6 +3392,16 @@
       </c>
       <c r="D74" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
